--- a/大作业项目/新冠疫情社区管理系统/社区信息表 .xlsx
+++ b/大作业项目/新冠疫情社区管理系统/社区信息表 .xlsx
@@ -1,39 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30505\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C066FCE6-CF0B-4ABD-A9D0-FA6CB2DC9057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1320" windowWidth="23265" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="44">
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元</t>
+  </si>
+  <si>
+    <t>楼栋</t>
+  </si>
+  <si>
+    <t>房间</t>
+  </si>
+  <si>
+    <t>核酸</t>
+  </si>
+  <si>
+    <t>电话号码</t>
   </si>
   <si>
     <t>张三</t>
   </si>
   <si>
+    <t>1单元</t>
+  </si>
+  <si>
+    <t>1栋</t>
+  </si>
+  <si>
+    <t>阴</t>
+  </si>
+  <si>
     <t>李四</t>
   </si>
   <si>
@@ -58,12 +70,18 @@
     <t>吕一</t>
   </si>
   <si>
+    <t>2栋</t>
+  </si>
+  <si>
     <t>汪宏</t>
   </si>
   <si>
     <t>张加</t>
   </si>
   <si>
+    <t>阳</t>
+  </si>
+  <si>
     <t>张明</t>
   </si>
   <si>
@@ -82,6 +100,9 @@
     <t>杨看看</t>
   </si>
   <si>
+    <t>2单元</t>
+  </si>
+  <si>
     <t>卓建</t>
   </si>
   <si>
@@ -125,78 +146,373 @@
   </si>
   <si>
     <t>刘夸</t>
-  </si>
-  <si>
-    <t>单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1单元</t>
-  </si>
-  <si>
-    <t>1单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2单元</t>
-  </si>
-  <si>
-    <t>楼栋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1栋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2栋</t>
-  </si>
-  <si>
-    <t>房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核酸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -204,24 +520,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -270,7 +872,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -305,7 +907,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -479,589 +1081,686 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <cols>
+    <col min="6" max="6" width="16.2222222222222" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>234567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>888765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>332567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>234252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>784532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>5267253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
       </c>
       <c r="D9">
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>636262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>201</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>252626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>241562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>2262414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>141515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>205</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>151562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>206</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>636656345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>207</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <v>63635234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>208</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>25252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>25234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>52525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>25252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>441452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <v>106</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>525262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>4256252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>77755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>201</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>677464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D27">
         <v>202</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D28">
         <v>203</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>456463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D29">
         <v>204</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>535363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D30">
         <v>205</v>
       </c>
       <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>363636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D31">
         <v>206</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>363636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D32">
         <v>207</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>333636</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D33">
         <v>208</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>366773</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/大作业项目/新冠疫情社区管理系统/社区信息表 .xlsx
+++ b/大作业项目/新冠疫情社区管理系统/社区信息表 .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="52">
   <si>
     <t>姓名</t>
   </si>
@@ -118,6 +118,9 @@
     <t>田一心</t>
   </si>
   <si>
+    <t>3单元</t>
+  </si>
+  <si>
     <t>尹空</t>
   </si>
   <si>
@@ -146,6 +149,27 @@
   </si>
   <si>
     <t>刘夸</t>
+  </si>
+  <si>
+    <t>王西宁</t>
+  </si>
+  <si>
+    <t>4单元</t>
+  </si>
+  <si>
+    <t>杨文为</t>
+  </si>
+  <si>
+    <t>李雾</t>
+  </si>
+  <si>
+    <t>王夸</t>
+  </si>
+  <si>
+    <t>王望</t>
+  </si>
+  <si>
+    <t>杨漾</t>
   </si>
 </sst>
 </file>
@@ -153,12 +177,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,58 +194,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +215,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,18 +259,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,8 +283,38 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,13 +334,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -327,13 +344,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,43 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,121 +512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,26 +535,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,6 +553,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -567,6 +575,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,148 +638,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,10 +1104,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1543,7 +1560,7 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -1560,7 +1577,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -1580,7 +1597,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -1600,7 +1617,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -1620,10 +1637,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -1640,7 +1657,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -1660,7 +1677,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -1680,7 +1697,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -1700,10 +1717,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -1712,7 +1729,7 @@
         <v>206</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F31">
         <v>363636</v>
@@ -1720,7 +1737,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -1740,10 +1757,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>18</v>
@@ -1756,6 +1773,126 @@
       </c>
       <c r="F33">
         <v>366773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>145363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>13141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>201</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>534636</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>202</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>363747</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>203</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>2353634</v>
       </c>
     </row>
   </sheetData>
